--- a/Parameters_Abortion15_Preeclampsia1.xlsx
+++ b/Parameters_Abortion15_Preeclampsia1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaselatour/preg_cohort_construction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0724C4A3-EDDD-FF4E-A73F-18C6332FC4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680671F4-2AB7-1946-B794-CF23F45F7B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30560" yWindow="-40" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{EDFB6D7C-8216-ED43-8AA6-178B9CD2875A}"/>
+    <workbookView xWindow="30560" yWindow="-40" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{EDFB6D7C-8216-ED43-8AA6-178B9CD2875A}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="13" r:id="rId1"/>
@@ -1991,7 +1991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBAD042-1D8C-E044-AB59-2B80CE0D260D}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2140,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0633E7-A8AC-2448-856C-6ACF1A963AAB}">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2178,14 +2178,14 @@
         <v>0</v>
       </c>
       <c r="C2" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="8">
         <v>0</v>
       </c>
       <c r="E2" s="2">
         <f>1-D2-C2</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2196,14 +2196,14 @@
         <v>1</v>
       </c>
       <c r="C3" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
       </c>
       <c r="E3" s="2">
         <f>1-D3-C3</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2214,14 +2214,14 @@
         <v>2</v>
       </c>
       <c r="C4" s="8">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>1-D4-C4</f>
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2232,14 +2232,14 @@
         <v>3</v>
       </c>
       <c r="C5" s="8">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="2">
         <f>1-D5-C5</f>
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2250,14 +2250,14 @@
         <v>4</v>
       </c>
       <c r="C6" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="2">
         <f>1-D6-C6</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2268,14 +2268,14 @@
         <v>5</v>
       </c>
       <c r="C7" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ref="E7:E41" si="0">1-C7-D7</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2286,14 +2286,14 @@
         <v>6</v>
       </c>
       <c r="C8" s="8">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="C43" s="3">
         <f>C2*SimParameters!B9</f>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="D43" s="3">
         <f>D2</f>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="E43" s="3">
         <f>1-D43-C43</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="C44" s="3">
         <f>C3*SimParameters!B9</f>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="D44" s="3">
         <f t="shared" ref="D44:D83" si="1">D3</f>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="E44" s="3">
         <f>1-D44-C44</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="C45" s="3">
         <f>C4*SimParameters!B9</f>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="D45" s="3">
         <f t="shared" si="1"/>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="E45" s="3">
         <f>1-D45-C45</f>
-        <v>0.9375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="C46" s="3">
         <f>C5*SimParameters!B9</f>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="D46" s="3">
         <f t="shared" si="1"/>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="E46" s="3">
         <f>1-D46-C46</f>
-        <v>0.9375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="C47" s="3">
         <f>C6*SimParameters!B9</f>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="D47" s="3">
         <f t="shared" si="1"/>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="E47" s="3">
         <f>1-D47-C47</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="C48" s="3">
         <f>C7*SimParameters!B9</f>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="D48" s="3">
         <f t="shared" si="1"/>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="E48" s="3">
         <f t="shared" ref="E48:E82" si="2">1-C48-D48</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="C49" s="3">
         <f>C8*SimParameters!B9</f>
-        <v>0.11249999999999999</v>
+        <v>0</v>
       </c>
       <c r="D49" s="3">
         <f t="shared" si="1"/>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="E49" s="3">
         <f t="shared" si="2"/>
-        <v>0.88749999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="C84" s="4">
         <f>C2*SimParameters!B10</f>
-        <v>0.15000000000000002</v>
+        <v>0</v>
       </c>
       <c r="D84" s="4">
         <f>D2</f>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="E84" s="4">
         <f>1-D84-C84</f>
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="C85" s="4">
         <f>C3*SimParameters!B10</f>
-        <v>0.15000000000000002</v>
+        <v>0</v>
       </c>
       <c r="D85" s="4">
         <f t="shared" ref="D85:D124" si="4">D3</f>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="E85" s="4">
         <f>1-D85-C85</f>
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="C86" s="4">
         <f>C4*SimParameters!B10</f>
-        <v>7.5000000000000011E-2</v>
+        <v>0</v>
       </c>
       <c r="D86" s="4">
         <f t="shared" si="4"/>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="E86" s="4">
         <f>1-D86-C86</f>
-        <v>0.92500000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -3796,7 +3796,7 @@
       </c>
       <c r="C87" s="4">
         <f>C5*SimParameters!B10</f>
-        <v>7.5000000000000011E-2</v>
+        <v>0</v>
       </c>
       <c r="D87" s="4">
         <f t="shared" si="4"/>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="E87" s="4">
         <f>1-D87-C87</f>
-        <v>0.92500000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="C88" s="4">
         <f>C6*SimParameters!B10</f>
-        <v>0.15000000000000002</v>
+        <v>0</v>
       </c>
       <c r="D88" s="4">
         <f t="shared" si="4"/>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="E88" s="4">
         <f>1-D88-C88</f>
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="C89" s="4">
         <f>C7*SimParameters!B10</f>
-        <v>0.15000000000000002</v>
+        <v>0</v>
       </c>
       <c r="D89" s="4">
         <f t="shared" si="4"/>
@@ -3844,7 +3844,7 @@
       </c>
       <c r="E89" s="4">
         <f t="shared" ref="E89:E123" si="5">1-C89-D89</f>
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="C90" s="4">
         <f>C8*SimParameters!B10</f>
-        <v>0.13500000000000001</v>
+        <v>0</v>
       </c>
       <c r="D90" s="4">
         <f t="shared" si="4"/>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="E90" s="4">
         <f t="shared" si="5"/>
-        <v>0.86499999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C2" s="2">
         <f>potential_preg_untrt!C2*SimParameters!B3</f>
-        <v>0.15000000000000002</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <f>potential_preg_untrt!D2</f>
@@ -4602,7 +4602,7 @@
       </c>
       <c r="E2" s="2">
         <f>1-D2-C2</f>
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4614,7 +4614,7 @@
       </c>
       <c r="C3" s="2">
         <f>potential_preg_untrt!C3*SimParameters!B3</f>
-        <v>0.15000000000000002</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
         <f>potential_preg_untrt!D3</f>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="E3" s="2">
         <f>1-D3-C3</f>
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="C4" s="2">
         <f>potential_preg_untrt!C4*SimParameters!B3</f>
-        <v>7.5000000000000011E-2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
         <f>potential_preg_untrt!D4</f>
@@ -4642,7 +4642,7 @@
       </c>
       <c r="E4" s="2">
         <f>1-D4-C4</f>
-        <v>0.92500000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="C5" s="2">
         <f>potential_preg_untrt!C5*SimParameters!B3</f>
-        <v>7.5000000000000011E-2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
         <f>potential_preg_untrt!D5</f>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="E5" s="2">
         <f>1-D5-C5</f>
-        <v>0.92500000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="C6" s="2">
         <f>potential_preg_untrt!C6*SimParameters!B3</f>
-        <v>0.15000000000000002</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <f>potential_preg_untrt!D6</f>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="E6" s="2">
         <f>1-D6-C6</f>
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="C7" s="2">
         <f>potential_preg_untrt!C7*SimParameters!B3</f>
-        <v>0.15000000000000002</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
         <f>potential_preg_untrt!D7</f>
@@ -4702,7 +4702,7 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" ref="E7:E41" si="0">1-C7-D7</f>
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="C8" s="2">
         <f>potential_preg_untrt!C8*SimParameters!B3</f>
-        <v>0.13500000000000001</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
         <f>potential_preg_untrt!D8</f>
@@ -4722,7 +4722,7 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>0.86499999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="C43" s="3">
         <f>potential_preg_untrt!C43*SimParameters!$B$3</f>
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="D43" s="3">
         <f>potential_preg_untrt!D43</f>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="E43" s="3">
         <f>1-D43-C43</f>
-        <v>0.8125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="C44" s="3">
         <f>potential_preg_untrt!C44*SimParameters!$B$3</f>
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="D44" s="3">
         <f>potential_preg_untrt!D44</f>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="E44" s="3">
         <f>1-D44-C44</f>
-        <v>0.8125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -5453,7 +5453,7 @@
       </c>
       <c r="C45" s="3">
         <f>potential_preg_untrt!C45*SimParameters!$B$3</f>
-        <v>9.375E-2</v>
+        <v>0</v>
       </c>
       <c r="D45" s="3">
         <f>potential_preg_untrt!D45</f>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="E45" s="3">
         <f>1-D45-C45</f>
-        <v>0.90625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="C46" s="3">
         <f>potential_preg_untrt!C46*SimParameters!$B$3</f>
-        <v>9.375E-2</v>
+        <v>0</v>
       </c>
       <c r="D46" s="3">
         <f>potential_preg_untrt!D46</f>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="E46" s="3">
         <f>1-D46-C46</f>
-        <v>0.90625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="C47" s="3">
         <f>potential_preg_untrt!C47*SimParameters!$B$3</f>
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="D47" s="3">
         <f>potential_preg_untrt!D47</f>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="E47" s="3">
         <f>1-D47-C47</f>
-        <v>0.8125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -5513,7 +5513,7 @@
       </c>
       <c r="C48" s="3">
         <f>potential_preg_untrt!C48*SimParameters!$B$3</f>
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="D48" s="3">
         <f>potential_preg_untrt!D48</f>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="E48" s="3">
         <f t="shared" ref="E48:E82" si="1">1-C48-D48</f>
-        <v>0.8125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="C49" s="3">
         <f>potential_preg_untrt!C49*SimParameters!$B$3</f>
-        <v>0.16874999999999998</v>
+        <v>0</v>
       </c>
       <c r="D49" s="3">
         <f>potential_preg_untrt!D49</f>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="E49" s="3">
         <f t="shared" si="1"/>
-        <v>0.83125000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="C84" s="4">
         <f>potential_preg_untrt!C84*SimParameters!$B$3</f>
-        <v>0.22500000000000003</v>
+        <v>0</v>
       </c>
       <c r="D84" s="4">
         <f>potential_preg_untrt!D84</f>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="E84" s="4">
         <f>1-D84-C84</f>
-        <v>0.77499999999999991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -6252,7 +6252,7 @@
       </c>
       <c r="C85" s="4">
         <f>potential_preg_untrt!C85*SimParameters!$B$3</f>
-        <v>0.22500000000000003</v>
+        <v>0</v>
       </c>
       <c r="D85" s="4">
         <f>potential_preg_untrt!D85</f>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="E85" s="4">
         <f>1-D85-C85</f>
-        <v>0.77499999999999991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="C86" s="4">
         <f>potential_preg_untrt!C86*SimParameters!$B$3</f>
-        <v>0.11250000000000002</v>
+        <v>0</v>
       </c>
       <c r="D86" s="4">
         <f>potential_preg_untrt!D86</f>
@@ -6280,7 +6280,7 @@
       </c>
       <c r="E86" s="4">
         <f>1-D86-C86</f>
-        <v>0.88749999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="C87" s="4">
         <f>potential_preg_untrt!C87*SimParameters!$B$3</f>
-        <v>0.11250000000000002</v>
+        <v>0</v>
       </c>
       <c r="D87" s="4">
         <f>potential_preg_untrt!D87</f>
@@ -6300,7 +6300,7 @@
       </c>
       <c r="E87" s="4">
         <f>1-D87-C87</f>
-        <v>0.88749999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="C88" s="4">
         <f>potential_preg_untrt!C88*SimParameters!$B$3</f>
-        <v>0.22500000000000003</v>
+        <v>0</v>
       </c>
       <c r="D88" s="4">
         <f>potential_preg_untrt!D88</f>
@@ -6320,7 +6320,7 @@
       </c>
       <c r="E88" s="4">
         <f>1-D88-C88</f>
-        <v>0.77499999999999991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="C89" s="4">
         <f>potential_preg_untrt!C89*SimParameters!$B$3</f>
-        <v>0.22500000000000003</v>
+        <v>0</v>
       </c>
       <c r="D89" s="4">
         <f>potential_preg_untrt!D89</f>
@@ -6340,7 +6340,7 @@
       </c>
       <c r="E89" s="4">
         <f t="shared" ref="E89:E123" si="2">1-C89-D89</f>
-        <v>0.77499999999999991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -6352,7 +6352,7 @@
       </c>
       <c r="C90" s="4">
         <f>potential_preg_untrt!C90*SimParameters!$B$3</f>
-        <v>0.20250000000000001</v>
+        <v>0</v>
       </c>
       <c r="D90" s="4">
         <f>potential_preg_untrt!D90</f>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="E90" s="4">
         <f t="shared" si="2"/>
-        <v>0.79749999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
